--- a/Activefloat/Bmodes/BModesEval.xlsx
+++ b/Activefloat/Bmodes/BModesEval.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" iterate="1" iterateCount="5"/>
 </workbook>
 </file>
 
@@ -370,19 +370,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:G13"/>
+  <dimension ref="C3:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E13"/>
+      <selection activeCell="G4" sqref="G4:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -399,7 +399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C4">
         <v>0</v>
       </c>
@@ -416,157 +416,174 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C5">
-        <v>0.1111</v>
+        <v>0.1</v>
       </c>
       <c r="D5">
-        <v>7.6999999999999996E-4</v>
+        <v>2.212E-3</v>
       </c>
       <c r="E5">
-        <v>1.8109999999999999E-3</v>
+        <v>4.8149999999999998E-3</v>
       </c>
       <c r="F5">
-        <v>7.5000000000000002E-4</v>
+        <v>2.0379999999999999E-3</v>
       </c>
       <c r="G5">
-        <v>1.059E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+        <v>4.633E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C6">
-        <v>0.22220000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="D6">
-        <v>3.0790000000000001E-3</v>
+        <v>8.5730000000000008E-3</v>
       </c>
       <c r="E6">
-        <v>7.0190000000000001E-3</v>
+        <v>1.7498E-2</v>
       </c>
       <c r="F6">
-        <v>3.003E-3</v>
+        <v>7.9050000000000006E-3</v>
       </c>
       <c r="G6">
-        <v>4.1099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+        <v>1.6910000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C7">
-        <v>0.33329999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="D7">
-        <v>7.5880000000000001E-3</v>
+        <v>1.8953999999999999E-2</v>
       </c>
       <c r="E7">
-        <v>1.6462999999999998E-2</v>
+        <v>3.5761000000000001E-2</v>
       </c>
       <c r="F7">
-        <v>7.4079999999999997E-3</v>
+        <v>1.7482999999999999E-2</v>
       </c>
       <c r="G7">
-        <v>9.6659999999999992E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+        <v>3.4745999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C8">
-        <v>0.44440000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="D8">
-        <v>1.7222999999999999E-2</v>
+        <v>3.3759999999999998E-2</v>
       </c>
       <c r="E8">
-        <v>3.3963E-2</v>
+        <v>5.7465000000000002E-2</v>
       </c>
       <c r="F8">
-        <v>1.6840999999999998E-2</v>
+        <v>3.1158999999999999E-2</v>
       </c>
       <c r="G8">
-        <v>2.0045E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+        <v>5.6231000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C9">
-        <v>0.55559999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>3.2569000000000001E-2</v>
+        <v>5.3557E-2</v>
       </c>
       <c r="E9">
-        <v>5.8577999999999998E-2</v>
+        <v>7.9533000000000006E-2</v>
       </c>
       <c r="F9">
-        <v>3.1891000000000003E-2</v>
+        <v>4.9464000000000001E-2</v>
       </c>
       <c r="G9">
-        <v>3.4752999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+        <v>7.8564999999999996E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C10">
-        <v>0.66669999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="D10">
-        <v>5.2668E-2</v>
+        <v>7.8507999999999994E-2</v>
       </c>
       <c r="E10">
-        <v>8.6063000000000001E-2</v>
+        <v>9.7701999999999997E-2</v>
       </c>
       <c r="F10">
-        <v>5.1640999999999999E-2</v>
+        <v>7.2567000000000006E-2</v>
       </c>
       <c r="G10">
-        <v>5.1332999999999997E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+        <v>9.7706000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C11">
-        <v>0.77780000000000005</v>
+        <v>0.7</v>
       </c>
       <c r="D11">
-        <v>8.1868999999999997E-2</v>
+        <v>0.108318</v>
       </c>
       <c r="E11">
-        <v>0.110982</v>
+        <v>0.107289</v>
       </c>
       <c r="F11">
-        <v>8.047E-2</v>
+        <v>0.100213</v>
       </c>
       <c r="G11">
-        <v>6.6849000000000006E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+        <v>0.109001</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C12">
-        <v>0.88890000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="D12">
-        <v>0.127274</v>
+        <v>0.14264199999999999</v>
       </c>
       <c r="E12">
-        <v>0.111571</v>
+        <v>0.10294399999999999</v>
       </c>
       <c r="F12">
-        <v>0.125665</v>
+        <v>0.132109</v>
       </c>
       <c r="G12">
-        <v>6.8852999999999998E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+        <v>0.106877</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C13">
+        <v>0.9</v>
+      </c>
+      <c r="D13">
+        <v>0.18110100000000001</v>
+      </c>
+      <c r="E13">
+        <v>7.7887999999999999E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.16794100000000001</v>
+      </c>
+      <c r="G13">
+        <v>8.3896999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C14">
         <v>1</v>
       </c>
-      <c r="D13">
-        <v>0.18729199999999999</v>
-      </c>
-      <c r="E13">
-        <v>6.1405000000000001E-2</v>
-      </c>
-      <c r="F13">
-        <v>0.185945</v>
-      </c>
-      <c r="G13">
-        <v>4.1475999999999999E-2</v>
+      <c r="D14">
+        <v>0.22276099999999999</v>
+      </c>
+      <c r="E14">
+        <v>2.4806999999999999E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.20689299999999999</v>
+      </c>
+      <c r="G14">
+        <v>3.1405000000000002E-2</v>
       </c>
     </row>
   </sheetData>
